--- a/aux-enem/mapas/mapa_2022.xlsx
+++ b/aux-enem/mapas/mapa_2022.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>First day of the 2022 exam</t>
+          <t>First day - ENEM 2022</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Second day of the 2022 exam</t>
+          <t>Second day - ENEM 2022</t>
         </is>
       </c>
     </row>
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>31.65066584081759</v>
+        <v>31.65</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>36.41</v>
       </c>
     </row>
     <row r="3">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>24.72617105569797</v>
+        <v>24.73</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>29.48</v>
       </c>
     </row>
     <row r="4">
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>42.98590330605329</v>
+        <v>42.99</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>48.61</v>
       </c>
     </row>
     <row r="5">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>31.90626408292023</v>
+        <v>31.91</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>37.04</v>
       </c>
     </row>
     <row r="6">
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>20.85852652090438</v>
+        <v>20.86</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>24.73</v>
       </c>
     </row>
     <row r="7">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>20.65133109330576</v>
+        <v>20.65</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>25.59</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>28.79622344610543</v>
+        <v>28.8</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>33.01</v>
       </c>
     </row>
     <row r="9">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>21.83966183749413</v>
+        <v>21.84</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="10">
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>17.13303878252332</v>
+        <v>17.13</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="11">
@@ -794,10 +794,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>26.66161675018452</v>
+        <v>26.66</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="12">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>14.56798994072211</v>
+        <v>14.57</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>17.57</v>
       </c>
     </row>
     <row r="13">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>23.10664246148117</v>
+        <v>23.11</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>25.69</v>
       </c>
     </row>
     <row r="14">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>22.78820990771774</v>
+        <v>22.79</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>26.26</v>
       </c>
     </row>
     <row r="15">
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>24.77526299011795</v>
+        <v>24.78</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="16">
@@ -959,10 +959,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>19.16311794112201</v>
+        <v>19.16</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>21.92</v>
       </c>
     </row>
     <row r="17">
@@ -992,10 +992,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>21.29577591439426</v>
+        <v>21.3</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>24.65</v>
       </c>
     </row>
     <row r="18">
@@ -1025,10 +1025,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>18.77913139438644</v>
+        <v>18.78</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="19">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>19.12191219121912</v>
+        <v>19.12</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>20.48074815518375</v>
+        <v>20.48</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>23.94</v>
       </c>
     </row>
     <row r="21">
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>21.7347187932391</v>
+        <v>21.73</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="22">
@@ -1157,10 +1157,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>22.89144651837717</v>
+        <v>22.89</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>27.21</v>
       </c>
     </row>
     <row r="23">
@@ -1190,10 +1190,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>21.68220717843913</v>
+        <v>21.68</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="24">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>19.46608670713637</v>
+        <v>19.47</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>24.13</v>
       </c>
     </row>
     <row r="25">
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>23.8763830599008</v>
+        <v>23.88</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>28.08</v>
       </c>
     </row>
     <row r="26">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>23.65941814303489</v>
+        <v>23.66</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="27">
@@ -1322,10 +1322,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>37.24744023715914</v>
+        <v>37.25</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>41.11</v>
       </c>
     </row>
     <row r="28">
@@ -1355,10 +1355,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>14.89042795120943</v>
+        <v>14.89</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>18.28</v>
       </c>
     </row>
   </sheetData>
